--- a/result/reply19_19.xlsx
+++ b/result/reply19_19.xlsx
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ5" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA10" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" t="n">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" t="n">
         <v>0</v>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -6509,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="CV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -7117,19 +7117,19 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>0</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AY22" t="n">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF22" t="n">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="BH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI22" t="n">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="CA22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB22" t="n">
         <v>0</v>
@@ -7424,13 +7424,13 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="CV23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -7737,13 +7737,13 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BF24" t="n">
         <v>0</v>
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="BS24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT24" t="n">
         <v>0</v>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="BW24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24" t="n">
         <v>0</v>
@@ -7887,13 +7887,13 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK24" t="n">
         <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM24" t="n">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="CJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK27" t="n">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="CV28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW28" t="n">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="BE29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="CK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM29" t="n">
         <v>0</v>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="BL30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM30" t="n">
         <v>0</v>
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="BE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="BH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI32" t="n">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="BM32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN32" t="n">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" t="n">
         <v>0</v>
@@ -10584,10 +10584,10 @@
         <v>0</v>
       </c>
       <c r="BN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP33" t="n">
         <v>0</v>
@@ -10647,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="CI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ33" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="CV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW33" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="CA34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB34" t="n">
         <v>0</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="BE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF36" t="n">
         <v>0</v>
@@ -11544,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="CA36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB36" t="n">
         <v>0</v>
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>0</v>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="AY37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" t="n">
         <v>0</v>
@@ -11812,10 +11812,10 @@
         <v>0</v>
       </c>
       <c r="BN37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP37" t="n">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="CI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ37" t="n">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="CV37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW37" t="n">
         <v>0</v>
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO38" t="n">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="AX38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AY38" t="n">
         <v>0</v>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="BE38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF38" t="n">
         <v>0</v>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW39" t="n">
         <v>0</v>
@@ -12649,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="AX40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY40" t="n">
         <v>0</v>
@@ -13055,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="BS41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT41" t="n">
         <v>0</v>
@@ -13079,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="CA41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CB41" t="n">
         <v>0</v>
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="CF42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG42" t="n">
         <v>0</v>
@@ -13567,10 +13567,10 @@
         <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="BW43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX43" t="n">
         <v>0</v>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH43" t="n">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="CF44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG44" t="n">
         <v>0</v>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" t="n">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="AY46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ46" t="n">
         <v>0</v>
@@ -14575,10 +14575,10 @@
         <v>0</v>
       </c>
       <c r="BN46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP46" t="n">
         <v>0</v>
@@ -14638,7 +14638,7 @@
         <v>0</v>
       </c>
       <c r="CI46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ46" t="n">
         <v>0</v>
@@ -14677,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="CV46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW46" t="n">
         <v>0</v>
@@ -14921,7 +14921,7 @@
         <v>0</v>
       </c>
       <c r="CA47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB47" t="n">
         <v>0</v>
@@ -15291,7 +15291,7 @@
         <v>0</v>
       </c>
       <c r="CV48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW48" t="n">
         <v>0</v>
@@ -15424,13 +15424,13 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
         <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS49" t="n">
         <v>0</v>
@@ -15547,10 +15547,10 @@
         <v>0</v>
       </c>
       <c r="CE49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG49" t="n">
         <v>0</v>
@@ -15583,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="CQ49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR49" t="n">
         <v>0</v>
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="CU49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV49" t="n">
         <v>0</v>
@@ -15719,13 +15719,13 @@
         <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM50" t="n">
         <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO50" t="n">
         <v>0</v>
@@ -16023,10 +16023,10 @@
         <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
@@ -16041,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
@@ -16050,25 +16050,25 @@
         <v>0</v>
       </c>
       <c r="AT51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU51" t="n">
         <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW51" t="n">
         <v>0</v>
       </c>
       <c r="AX51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY51" t="n">
         <v>0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" t="n">
         <v>0</v>
@@ -16077,16 +16077,16 @@
         <v>0</v>
       </c>
       <c r="BC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD51" t="n">
         <v>0</v>
       </c>
       <c r="BE51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG51" t="n">
         <v>0</v>
@@ -16110,13 +16110,13 @@
         <v>0</v>
       </c>
       <c r="BN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ51" t="n">
         <v>0</v>
@@ -16131,19 +16131,19 @@
         <v>0</v>
       </c>
       <c r="BU51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX51" t="n">
         <v>0</v>
       </c>
       <c r="BY51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ51" t="n">
         <v>0</v>
@@ -16155,10 +16155,10 @@
         <v>0</v>
       </c>
       <c r="CC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE51" t="n">
         <v>0</v>
@@ -16167,16 +16167,16 @@
         <v>0</v>
       </c>
       <c r="CG51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH51" t="n">
         <v>0</v>
       </c>
       <c r="CI51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK51" t="n">
         <v>0</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="CN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO51" t="n">
         <v>0</v>
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="CR51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CS51" t="n">
         <v>0</v>
@@ -16212,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="CV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW51" t="n">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="AY52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52" t="n">
         <v>0</v>
@@ -16393,10 +16393,10 @@
         <v>0</v>
       </c>
       <c r="BF52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH52" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="BP52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ52" t="n">
         <v>0</v>
@@ -16444,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="BW52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX52" t="n">
         <v>0</v>
@@ -16980,13 +16980,13 @@
         <v>0</v>
       </c>
       <c r="AW54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54" t="n">
         <v>0</v>
       </c>
       <c r="AY54" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ54" t="n">
         <v>0</v>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="BD54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE54" t="n">
         <v>0</v>
@@ -17028,7 +17028,7 @@
         <v>0</v>
       </c>
       <c r="BM54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN54" t="n">
         <v>0</v>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="BY54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ54" t="n">
         <v>0</v>
@@ -17085,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="CF54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG54" t="n">
         <v>0</v>
@@ -17097,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="CJ54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CK54" t="n">
         <v>0</v>
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55" t="n">
         <v>0</v>
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>0</v>
@@ -17278,7 +17278,7 @@
         <v>0</v>
       </c>
       <c r="AT55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -17293,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="AY55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ55" t="n">
         <v>0</v>
@@ -17344,7 +17344,7 @@
         <v>0</v>
       </c>
       <c r="BP55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ55" t="n">
         <v>0</v>
@@ -17359,10 +17359,10 @@
         <v>0</v>
       </c>
       <c r="BU55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW55" t="n">
         <v>0</v>
@@ -17371,22 +17371,22 @@
         <v>0</v>
       </c>
       <c r="BY55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ55" t="n">
         <v>0</v>
       </c>
       <c r="CA55" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CB55" t="n">
         <v>0</v>
       </c>
       <c r="CC55" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CD55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE55" t="n">
         <v>0</v>
@@ -17401,10 +17401,10 @@
         <v>0</v>
       </c>
       <c r="CI55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK55" t="n">
         <v>0</v>
@@ -17416,13 +17416,13 @@
         <v>0</v>
       </c>
       <c r="CN55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO55" t="n">
         <v>0</v>
       </c>
       <c r="CP55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ55" t="n">
         <v>0</v>
@@ -17868,13 +17868,13 @@
         <v>0</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM57" t="n">
         <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO57" t="n">
         <v>0</v>
@@ -17904,7 +17904,7 @@
         <v>0</v>
       </c>
       <c r="AX57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY57" t="n">
         <v>0</v>
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="BD57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE57" t="n">
         <v>0</v>
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
       <c r="BS57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT57" t="n">
         <v>0</v>
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="CT57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU57" t="n">
         <v>0</v>
@@ -18214,10 +18214,10 @@
         <v>0</v>
       </c>
       <c r="AY58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA58" t="n">
         <v>0</v>
@@ -18229,7 +18229,7 @@
         <v>0</v>
       </c>
       <c r="BD58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE58" t="n">
         <v>0</v>
@@ -18265,7 +18265,7 @@
         <v>0</v>
       </c>
       <c r="BP58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ58" t="n">
         <v>0</v>
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="BW58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX58" t="n">
         <v>0</v>
@@ -18301,7 +18301,7 @@
         <v>0</v>
       </c>
       <c r="CB58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC58" t="n">
         <v>0</v>
@@ -18789,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM60" t="n">
         <v>0</v>
@@ -18798,13 +18798,13 @@
         <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60" t="n">
         <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -18900,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="BW60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX60" t="n">
         <v>0</v>
@@ -18912,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="CA60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB60" t="n">
         <v>0</v>
@@ -18930,7 +18930,7 @@
         <v>0</v>
       </c>
       <c r="CG60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CH60" t="n">
         <v>0</v>
@@ -18969,13 +18969,13 @@
         <v>0</v>
       </c>
       <c r="CT60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU60" t="n">
         <v>0</v>
       </c>
       <c r="CV60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW60" t="n">
         <v>0</v>
@@ -19177,7 +19177,7 @@
         <v>0</v>
       </c>
       <c r="BM61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN61" t="n">
         <v>0</v>
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="CQ61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR61" t="n">
         <v>0</v>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
       <c r="BG64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH64" t="n">
         <v>0</v>
@@ -20161,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="CH64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI64" t="n">
         <v>0</v>
@@ -20628,7 +20628,7 @@
         <v>0</v>
       </c>
       <c r="AK66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" t="n">
         <v>0</v>
@@ -20655,7 +20655,7 @@
         <v>0</v>
       </c>
       <c r="AT66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="AY66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ66" t="n">
         <v>0</v>
@@ -20718,7 +20718,7 @@
         <v>0</v>
       </c>
       <c r="BO66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP66" t="n">
         <v>0</v>
@@ -20778,7 +20778,7 @@
         <v>0</v>
       </c>
       <c r="CI66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ66" t="n">
         <v>0</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="CV66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW66" t="n">
         <v>0</v>
@@ -20935,7 +20935,7 @@
         <v>0</v>
       </c>
       <c r="AK67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" t="n">
         <v>0</v>
@@ -20962,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="AT67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>0</v>
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
       <c r="AY67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ67" t="n">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="BN67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO67" t="n">
         <v>0</v>
@@ -21085,7 +21085,7 @@
         <v>0</v>
       </c>
       <c r="CI67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ67" t="n">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="CV67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW67" t="n">
         <v>0</v>
@@ -21236,7 +21236,7 @@
         <v>0</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ68" t="n">
         <v>0</v>
@@ -21284,10 +21284,10 @@
         <v>0</v>
       </c>
       <c r="AY68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA68" t="n">
         <v>0</v>
@@ -21305,7 +21305,7 @@
         <v>0</v>
       </c>
       <c r="BF68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG68" t="n">
         <v>0</v>
@@ -21356,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="BW68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX68" t="n">
         <v>0</v>
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="CQ69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR69" t="n">
         <v>0</v>
@@ -21850,7 +21850,7 @@
         <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ70" t="n">
         <v>0</v>
@@ -21874,7 +21874,7 @@
         <v>0</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -21913,7 +21913,7 @@
         <v>0</v>
       </c>
       <c r="BD70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE70" t="n">
         <v>0</v>
@@ -21928,7 +21928,7 @@
         <v>0</v>
       </c>
       <c r="BI70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ70" t="n">
         <v>0</v>
@@ -22045,7 +22045,7 @@
         <v>0</v>
       </c>
       <c r="CV70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW70" t="n">
         <v>0</v>
@@ -22473,7 +22473,7 @@
         <v>0</v>
       </c>
       <c r="AL72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" t="n">
         <v>0</v>
@@ -22506,10 +22506,10 @@
         <v>0</v>
       </c>
       <c r="AW72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY72" t="n">
         <v>0</v>
@@ -22521,16 +22521,16 @@
         <v>0</v>
       </c>
       <c r="BB72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC72" t="n">
         <v>0</v>
       </c>
       <c r="BD72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF72" t="n">
         <v>0</v>
@@ -22584,13 +22584,13 @@
         <v>0</v>
       </c>
       <c r="BW72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ72" t="n">
         <v>0</v>
@@ -22599,7 +22599,7 @@
         <v>0</v>
       </c>
       <c r="CB72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC72" t="n">
         <v>0</v>
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="CK72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL72" t="n">
         <v>0</v>
@@ -22656,7 +22656,7 @@
         <v>0</v>
       </c>
       <c r="CU72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV72" t="n">
         <v>0</v>
@@ -23228,7 +23228,7 @@
         <v>0</v>
       </c>
       <c r="CG74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH74" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="AY75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA75" t="n">
         <v>0</v>
@@ -23448,13 +23448,13 @@
         <v>0</v>
       </c>
       <c r="BD75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG75" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="BP75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ75" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK79" t="n">
         <v>0</v>
@@ -24631,13 +24631,13 @@
         <v>0</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP79" t="n">
         <v>0</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="AU79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV79" t="n">
         <v>0</v>
@@ -24673,13 +24673,13 @@
         <v>0</v>
       </c>
       <c r="BC79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD79" t="n">
         <v>0</v>
       </c>
       <c r="BE79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF79" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="BH79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI79" t="n">
         <v>0</v>
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="BQ79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR79" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="BD80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE80" t="n">
         <v>0</v>
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="BC81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD81" t="n">
         <v>0</v>
@@ -25398,13 +25398,13 @@
         <v>0</v>
       </c>
       <c r="CN81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CO81" t="n">
         <v>0</v>
       </c>
       <c r="CP81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CQ81" t="n">
         <v>0</v>
@@ -25543,7 +25543,7 @@
         <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="AT82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>0</v>
@@ -25582,10 +25582,10 @@
         <v>0</v>
       </c>
       <c r="AY82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA82" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="BC82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE82" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="BG82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH82" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         <v>0</v>
       </c>
       <c r="BN82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO82" t="n">
         <v>0</v>
@@ -25660,7 +25660,7 @@
         <v>0</v>
       </c>
       <c r="BY82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ82" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="CJ82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK82" t="n">
         <v>0</v>
@@ -25862,13 +25862,13 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ83" t="n">
         <v>0</v>
       </c>
       <c r="AR83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AS83" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="AW83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX83" t="n">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="BT83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU83" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="BX83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY83" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="CF83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CG83" t="n">
         <v>0</v>
@@ -26021,7 +26021,7 @@
         <v>0</v>
       </c>
       <c r="CQ83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR83" t="n">
         <v>0</v>
@@ -26033,7 +26033,7 @@
         <v>0</v>
       </c>
       <c r="CU83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV83" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>0</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM84" t="n">
         <v>0</v>
@@ -26169,13 +26169,13 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ84" t="n">
         <v>0</v>
       </c>
       <c r="AR84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS84" t="n">
         <v>0</v>
@@ -26190,7 +26190,7 @@
         <v>0</v>
       </c>
       <c r="AW84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX84" t="n">
         <v>0</v>
@@ -26268,7 +26268,7 @@
         <v>0</v>
       </c>
       <c r="BW84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX84" t="n">
         <v>0</v>
@@ -26286,13 +26286,13 @@
         <v>0</v>
       </c>
       <c r="CC84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD84" t="n">
         <v>0</v>
       </c>
       <c r="CE84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF84" t="n">
         <v>0</v>
@@ -26340,7 +26340,7 @@
         <v>0</v>
       </c>
       <c r="CU84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV84" t="n">
         <v>0</v>
@@ -26849,7 +26849,7 @@
         <v>0</v>
       </c>
       <c r="BL86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM86" t="n">
         <v>0</v>
@@ -26897,7 +26897,7 @@
         <v>0</v>
       </c>
       <c r="CB86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC86" t="n">
         <v>0</v>
@@ -26948,7 +26948,7 @@
         <v>0</v>
       </c>
       <c r="CS86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT86" t="n">
         <v>0</v>
@@ -27066,7 +27066,7 @@
         <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI87" t="n">
         <v>0</v>
@@ -27075,7 +27075,7 @@
         <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL87" t="n">
         <v>0</v>
@@ -27102,7 +27102,7 @@
         <v>0</v>
       </c>
       <c r="AT87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>0</v>
@@ -27117,7 +27117,7 @@
         <v>0</v>
       </c>
       <c r="AY87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ87" t="n">
         <v>0</v>
@@ -27129,7 +27129,7 @@
         <v>0</v>
       </c>
       <c r="BC87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD87" t="n">
         <v>0</v>
@@ -27162,10 +27162,10 @@
         <v>0</v>
       </c>
       <c r="BN87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP87" t="n">
         <v>0</v>
@@ -27195,7 +27195,7 @@
         <v>0</v>
       </c>
       <c r="BY87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ87" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="CV87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW87" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="BB88" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BC88" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="BC89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD89" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="BT89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU89" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="CB89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC89" t="n">
         <v>0</v>
@@ -28360,7 +28360,7 @@
         <v>0</v>
       </c>
       <c r="BD91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE91" t="n">
         <v>0</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="AY92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ92" t="n">
         <v>0</v>
@@ -28670,7 +28670,7 @@
         <v>0</v>
       </c>
       <c r="BE92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF92" t="n">
         <v>0</v>
@@ -28715,10 +28715,10 @@
         <v>0</v>
       </c>
       <c r="BT92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV92" t="n">
         <v>0</v>
@@ -28742,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="CC92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD92" t="n">
         <v>0</v>
@@ -28781,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="CP92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ92" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="BC94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD94" t="n">
         <v>0</v>
@@ -29356,7 +29356,7 @@
         <v>0</v>
       </c>
       <c r="CC94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CD94" t="n">
         <v>0</v>
@@ -29567,7 +29567,7 @@
         <v>0</v>
       </c>
       <c r="AW95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX95" t="n">
         <v>0</v>
@@ -31069,7 +31069,7 @@
         <v>0</v>
       </c>
       <c r="AL100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM100" t="n">
         <v>0</v>
@@ -31099,7 +31099,7 @@
         <v>0</v>
       </c>
       <c r="AV100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW100" t="n">
         <v>0</v>
@@ -31135,7 +31135,7 @@
         <v>0</v>
       </c>
       <c r="BH100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI100" t="n">
         <v>0</v>
@@ -31162,10 +31162,10 @@
         <v>0</v>
       </c>
       <c r="BQ100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS100" t="n">
         <v>0</v>
@@ -31466,7 +31466,7 @@
         <v>0</v>
       </c>
       <c r="BP101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ101" t="n">
         <v>0</v>
